--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BE/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BE/10/seed5/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.31009999999999</v>
+        <v>16.2442</v>
       </c>
     </row>
     <row r="4">
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.110799999999998</v>
+        <v>5.103899999999998</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.72260000000001</v>
+        <v>16.8758</v>
       </c>
     </row>
     <row r="15">
@@ -882,7 +882,7 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>15.7669</v>
+        <v>15.9434</v>
       </c>
     </row>
     <row r="27">
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.5552</v>
+        <v>16.5502</v>
       </c>
     </row>
     <row r="32">
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.418499999999999</v>
+        <v>6.281299999999999</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.8764</v>
+        <v>16.77789999999999</v>
       </c>
     </row>
     <row r="36">
@@ -1043,7 +1043,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.026900000000001</v>
+        <v>8.694400000000005</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1069,7 +1069,7 @@
         <v>-7.88</v>
       </c>
       <c r="E37" t="n">
-        <v>16.73890000000001</v>
+        <v>16.7725</v>
       </c>
     </row>
     <row r="38">
@@ -1077,7 +1077,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>4.870999999999999</v>
+        <v>5.094999999999999</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1205,7 +1205,7 @@
         <v>-7.87</v>
       </c>
       <c r="E45" t="n">
-        <v>16.4401</v>
+        <v>16.4415</v>
       </c>
     </row>
     <row r="46">
@@ -1213,7 +1213,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>5.999600000000003</v>
+        <v>5.971500000000004</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1349,7 +1349,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.790999999999999</v>
+        <v>4.599499999999998</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.4862</v>
+        <v>5.940499999999997</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.73090000000001</v>
+        <v>16.67020000000001</v>
       </c>
     </row>
     <row r="58">
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>6.086399999999998</v>
+        <v>6.090899999999997</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.541799999999998</v>
+        <v>5.343999999999998</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1655,7 +1655,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.166100000000003</v>
+        <v>5.068200000000004</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>5.680800000000001</v>
+        <v>5.750100000000002</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -2114,7 +2114,7 @@
         <v>-21.4</v>
       </c>
       <c r="B99" t="n">
-        <v>4.593499999999998</v>
+        <v>4.659499999999999</v>
       </c>
       <c r="C99" t="n">
         <v>-15.77</v>
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.3016</v>
+        <v>16.4083</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.68859999999999</v>
+        <v>16.62939999999999</v>
       </c>
     </row>
   </sheetData>
